--- a/_static/NoCode/Stanfield Point System.xlsx
+++ b/_static/NoCode/Stanfield Point System.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/Box Sync/New Cases/NoCode, Inc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/Box Sync/negogos/OB581/_static/NoCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21028EE4-E8FD-BF4B-83B7-6D503E4B6F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A794C-C913-AF4E-9422-C3EA252790E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{62CA68C9-CA64-214F-A0B1-9BF6A4C3400C}"/>
+    <workbookView xWindow="18680" yWindow="4860" windowWidth="28800" windowHeight="17500" xr2:uid="{62CA68C9-CA64-214F-A0B1-9BF6A4C3400C}"/>
   </bookViews>
   <sheets>
     <sheet name="Stanfield's Input Sheet" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,11 +669,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="14">
-        <v>0</v>
+        <v>170000</v>
       </c>
       <c r="D6" s="19">
         <f>'Point System Weightings'!$C$4</f>
-        <v>0</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -682,11 +682,11 @@
         <v>3</v>
       </c>
       <c r="C7" s="14">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D7" s="19">
         <f>'Point System Weightings'!$C$12</f>
-        <v>0</v>
+        <v>917</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -695,11 +695,11 @@
         <v>4</v>
       </c>
       <c r="C8" s="15">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D8" s="19">
         <f>'Point System Weightings'!$C$21</f>
-        <v>0</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -708,11 +708,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D9" s="19">
         <f>'Point System Weightings'!$C$27</f>
-        <v>0</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -721,11 +721,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="19">
         <f>'Point System Weightings'!$C$32</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="18">
         <f>SUM('Stanfield''s Input Sheet'!D6:D10)</f>
-        <v>10000</v>
+        <v>12867</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="C4" s="2">
         <f>IF('Stanfield''s Input Sheet'!D10=$B$35,0,ROUND(B4*'Stanfield''s Input Sheet'!C6+B5*POWER(('Stanfield''s Input Sheet'!C6-B6)/B7,2)+ B8,B9))</f>
-        <v>0</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -914,7 +914,7 @@
       </c>
       <c r="C12" s="2">
         <f>IF('Stanfield''s Input Sheet'!D10=B35,0,ROUND(B13*(B12*'Stanfield''s Input Sheet'!C7-B14*POWER(('Stanfield''s Input Sheet'!C7 - B15)/B16,2)+B17),B18))</f>
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -991,8 +991,8 @@
         <v>1.5</v>
       </c>
       <c r="C21" s="2">
-        <f>IF('Stanfield''s Input Sheet'!C10=A35,0,B21*(B22*100*'Stanfield''s Input Sheet'!C8 +  B23*POWER(100*'Stanfield''s Input Sheet'!C8,2)+B24))</f>
-        <v>0</v>
+        <f>IF('Stanfield''s Input Sheet'!C10=A35,0,B21*(B22*10*'Stanfield''s Input Sheet'!C8 +  B23*POWER(10*'Stanfield''s Input Sheet'!C8,2)+B24))</f>
+        <v>7500</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C27" s="2">
         <f>IF('Stanfield''s Input Sheet'!C10=A35,0,INDEX(B27:B29,MATCH('Stanfield''s Input Sheet'!$C$9,$A$27:$A$29,0)))</f>
-        <v>0</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C32" s="2">
         <f>INDEX(B32:B35,MATCH('Stanfield''s Input Sheet'!C10,A32:A35,0))</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">

--- a/_static/NoCode/Stanfield Point System.xlsx
+++ b/_static/NoCode/Stanfield Point System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/Box Sync/negogos/OB581/_static/NoCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A794C-C913-AF4E-9422-C3EA252790E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B3EB8-ABF7-744E-A8AB-915E0E69EE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18680" yWindow="4860" windowWidth="28800" windowHeight="17500" xr2:uid="{62CA68C9-CA64-214F-A0B1-9BF6A4C3400C}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,11 +669,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="14">
-        <v>170000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="19">
         <f>'Point System Weightings'!$C$4</f>
-        <v>2200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -682,11 +682,11 @@
         <v>3</v>
       </c>
       <c r="C7" s="14">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="19">
         <f>'Point System Weightings'!$C$12</f>
-        <v>917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -695,11 +695,11 @@
         <v>4</v>
       </c>
       <c r="C8" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D8" s="19">
         <f>'Point System Weightings'!$C$21</f>
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -708,11 +708,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D9" s="19">
         <f>'Point System Weightings'!$C$27</f>
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -721,11 +721,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" s="19">
         <f>'Point System Weightings'!$C$32</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="18">
         <f>SUM('Stanfield''s Input Sheet'!D6:D10)</f>
-        <v>12867</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
       </c>
       <c r="C4" s="2">
         <f>IF('Stanfield''s Input Sheet'!D10=$B$35,0,ROUND(B4*'Stanfield''s Input Sheet'!C6+B5*POWER(('Stanfield''s Input Sheet'!C6-B6)/B7,2)+ B8,B9))</f>
-        <v>2200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -914,7 +914,7 @@
       </c>
       <c r="C12" s="2">
         <f>IF('Stanfield''s Input Sheet'!D10=B35,0,ROUND(B13*(B12*'Stanfield''s Input Sheet'!C7-B14*POWER(('Stanfield''s Input Sheet'!C7 - B15)/B16,2)+B17),B18))</f>
-        <v>917</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="C21" s="2">
         <f>IF('Stanfield''s Input Sheet'!C10=A35,0,B21*(B22*10*'Stanfield''s Input Sheet'!C8 +  B23*POWER(10*'Stanfield''s Input Sheet'!C8,2)+B24))</f>
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C27" s="2">
         <f>IF('Stanfield''s Input Sheet'!C10=A35,0,INDEX(B27:B29,MATCH('Stanfield''s Input Sheet'!$C$9,$A$27:$A$29,0)))</f>
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C32" s="2">
         <f>INDEX(B32:B35,MATCH('Stanfield''s Input Sheet'!C10,A32:A35,0))</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">

--- a/_static/NoCode/Stanfield Point System.xlsx
+++ b/_static/NoCode/Stanfield Point System.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/Box Sync/negogos/OB581/_static/NoCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/My Drive/Home/negogos/OB581/_static/NoCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B3EB8-ABF7-744E-A8AB-915E0E69EE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E0AA3-6E8D-9F4B-A83B-9C5703109E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18680" yWindow="4860" windowWidth="28800" windowHeight="17500" xr2:uid="{62CA68C9-CA64-214F-A0B1-9BF6A4C3400C}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,11 +669,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="14">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="D6" s="19">
         <f>'Point System Weightings'!$C$4</f>
-        <v>0</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -682,11 +682,11 @@
         <v>3</v>
       </c>
       <c r="C7" s="14">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D7" s="19">
         <f>'Point System Weightings'!$C$12</f>
-        <v>0</v>
+        <v>917</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -695,11 +695,11 @@
         <v>4</v>
       </c>
       <c r="C8" s="15">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D8" s="19">
         <f>'Point System Weightings'!$C$21</f>
-        <v>0</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -708,11 +708,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D9" s="19">
         <f>'Point System Weightings'!$C$27</f>
-        <v>0</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -721,11 +721,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="19">
         <f>'Point System Weightings'!$C$32</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="18">
         <f>SUM('Stanfield''s Input Sheet'!D6:D10)</f>
-        <v>10000</v>
+        <v>13756</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
       </c>
       <c r="C4" s="2">
         <f>IF('Stanfield''s Input Sheet'!D10=$B$35,0,ROUND(B4*'Stanfield''s Input Sheet'!C6+B5*POWER(('Stanfield''s Input Sheet'!C6-B6)/B7,2)+ B8,B9))</f>
-        <v>0</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -914,7 +914,7 @@
       </c>
       <c r="C12" s="2">
         <f>IF('Stanfield''s Input Sheet'!D10=B35,0,ROUND(B13*(B12*'Stanfield''s Input Sheet'!C7-B14*POWER(('Stanfield''s Input Sheet'!C7 - B15)/B16,2)+B17),B18))</f>
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="C21" s="2">
         <f>IF('Stanfield''s Input Sheet'!C10=A35,0,B21*(B22*10*'Stanfield''s Input Sheet'!C8 +  B23*POWER(10*'Stanfield''s Input Sheet'!C8,2)+B24))</f>
-        <v>0</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C27" s="2">
         <f>IF('Stanfield''s Input Sheet'!C10=A35,0,INDEX(B27:B29,MATCH('Stanfield''s Input Sheet'!$C$9,$A$27:$A$29,0)))</f>
-        <v>0</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C32" s="2">
         <f>INDEX(B32:B35,MATCH('Stanfield''s Input Sheet'!C10,A32:A35,0))</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">

--- a/_static/NoCode/Stanfield Point System.xlsx
+++ b/_static/NoCode/Stanfield Point System.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/My Drive/Home/negogos/OB581/_static/NoCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/Library/CloudStorage/GoogleDrive-atwell@stanford.edu/My Drive/Home/negogos/OB581/_static/NoCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E0AA3-6E8D-9F4B-A83B-9C5703109E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56F27FE-F82B-2248-A079-5D85B035534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18680" yWindow="4860" windowWidth="28800" windowHeight="17500" xr2:uid="{62CA68C9-CA64-214F-A0B1-9BF6A4C3400C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{62CA68C9-CA64-214F-A0B1-9BF6A4C3400C}"/>
   </bookViews>
   <sheets>
     <sheet name="Stanfield's Input Sheet" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,11 +669,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="14">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="19">
         <f>'Point System Weightings'!$C$4</f>
-        <v>3089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -682,11 +682,11 @@
         <v>3</v>
       </c>
       <c r="C7" s="14">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="19">
         <f>'Point System Weightings'!$C$12</f>
-        <v>917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -695,11 +695,11 @@
         <v>4</v>
       </c>
       <c r="C8" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D8" s="19">
         <f>'Point System Weightings'!$C$21</f>
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -708,11 +708,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D9" s="19">
         <f>'Point System Weightings'!$C$27</f>
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -721,11 +721,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" s="19">
         <f>'Point System Weightings'!$C$32</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="18">
         <f>SUM('Stanfield''s Input Sheet'!D6:D10)</f>
-        <v>13756</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
       </c>
       <c r="C4" s="2">
         <f>IF('Stanfield''s Input Sheet'!D10=$B$35,0,ROUND(B4*'Stanfield''s Input Sheet'!C6+B5*POWER(('Stanfield''s Input Sheet'!C6-B6)/B7,2)+ B8,B9))</f>
-        <v>3089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -914,7 +914,7 @@
       </c>
       <c r="C12" s="2">
         <f>IF('Stanfield''s Input Sheet'!D10=B35,0,ROUND(B13*(B12*'Stanfield''s Input Sheet'!C7-B14*POWER(('Stanfield''s Input Sheet'!C7 - B15)/B16,2)+B17),B18))</f>
-        <v>917</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="C21" s="2">
         <f>IF('Stanfield''s Input Sheet'!C10=A35,0,B21*(B22*10*'Stanfield''s Input Sheet'!C8 +  B23*POWER(10*'Stanfield''s Input Sheet'!C8,2)+B24))</f>
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C27" s="2">
         <f>IF('Stanfield''s Input Sheet'!C10=A35,0,INDEX(B27:B29,MATCH('Stanfield''s Input Sheet'!$C$9,$A$27:$A$29,0)))</f>
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C32" s="2">
         <f>INDEX(B32:B35,MATCH('Stanfield''s Input Sheet'!C10,A32:A35,0))</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">

--- a/_static/NoCode/Stanfield Point System.xlsx
+++ b/_static/NoCode/Stanfield Point System.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/Library/CloudStorage/GoogleDrive-atwell@stanford.edu/My Drive/Home/negogos/OB581/_static/NoCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/My Drive/Home/Teaching/Negotiations/New Cases/NoCode, Inc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56F27FE-F82B-2248-A079-5D85B035534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBAF64E-57FD-BC45-9352-C34ED850B908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{62CA68C9-CA64-214F-A0B1-9BF6A4C3400C}"/>
+    <workbookView xWindow="1700" yWindow="6560" windowWidth="28800" windowHeight="17500" xr2:uid="{62CA68C9-CA64-214F-A0B1-9BF6A4C3400C}"/>
   </bookViews>
   <sheets>
     <sheet name="Stanfield's Input Sheet" sheetId="1" r:id="rId1"/>
@@ -169,10 +169,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -280,7 +281,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -296,6 +296,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,9 +316,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -355,7 +356,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -461,7 +462,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -603,7 +604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,7 +616,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,7 +660,7 @@
       <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>1</v>
       </c>
     </row>
@@ -671,7 +672,7 @@
       <c r="C6" s="14">
         <v>0</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <f>'Point System Weightings'!$C$4</f>
         <v>0</v>
       </c>
@@ -684,7 +685,7 @@
       <c r="C7" s="14">
         <v>0</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <f>'Point System Weightings'!$C$12</f>
         <v>0</v>
       </c>
@@ -694,10 +695,10 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
         <f>'Point System Weightings'!$C$21</f>
         <v>0</v>
       </c>
@@ -707,10 +708,10 @@
       <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <f>'Point System Weightings'!$C$27</f>
         <v>0</v>
       </c>
@@ -720,10 +721,10 @@
       <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <f>'Point System Weightings'!$C$32</f>
         <v>10000</v>
       </c>
@@ -734,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <f>SUM('Stanfield''s Input Sheet'!D6:D10)</f>
         <v>10000</v>
       </c>
@@ -748,7 +749,7 @@
     <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="11"/>
@@ -756,31 +757,31 @@
     <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="20"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="20"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="11"/>
     </row>
   </sheetData>
@@ -991,7 +992,7 @@
         <v>1.5</v>
       </c>
       <c r="C21" s="2">
-        <f>IF('Stanfield''s Input Sheet'!C10=A35,0,B21*(B22*10*'Stanfield''s Input Sheet'!C8 +  B23*POWER(10*'Stanfield''s Input Sheet'!C8,2)+B24))</f>
+        <f>IF('Stanfield''s Input Sheet'!C10=A35,0,B21*(B22*100*'Stanfield''s Input Sheet'!C8 +  B23*POWER(100*'Stanfield''s Input Sheet'!C8,2)+B24))</f>
         <v>0</v>
       </c>
     </row>

--- a/_static/NoCode/Stanfield Point System.xlsx
+++ b/_static/NoCode/Stanfield Point System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/My Drive/Home/Teaching/Negotiations/New Cases/NoCode, Inc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBAF64E-57FD-BC45-9352-C34ED850B908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A32DFFA-54B8-3341-A12D-6AB55E92BC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="6560" windowWidth="28800" windowHeight="17500" xr2:uid="{62CA68C9-CA64-214F-A0B1-9BF6A4C3400C}"/>
+    <workbookView xWindow="2040" yWindow="5940" windowWidth="28800" windowHeight="17500" xr2:uid="{62CA68C9-CA64-214F-A0B1-9BF6A4C3400C}"/>
   </bookViews>
   <sheets>
     <sheet name="Stanfield's Input Sheet" sheetId="1" r:id="rId1"/>
@@ -293,10 +293,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,7 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>0</v>
       </c>
       <c r="D8" s="18">
@@ -749,7 +749,7 @@
     <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="11"/>
@@ -757,31 +757,31 @@
     <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="19"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="11"/>
     </row>
   </sheetData>
@@ -822,7 +822,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,7 +1086,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="4">
-        <v>12500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
